--- a/data/trans_orig/Barthel_r-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Barthel_r-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>103288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94182</v>
+        <v>94038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111566</v>
+        <v>110854</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8007344844918336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7301441010896382</v>
+        <v>0.7290278669665404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8649103749677307</v>
+        <v>0.8593970288493821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -765,19 +765,19 @@
         <v>205201</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190832</v>
+        <v>190199</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>218073</v>
+        <v>217937</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7538264698906004</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7010425706011877</v>
+        <v>0.6987167388045114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8011129525870561</v>
+        <v>0.8006165565820564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>315</v>
@@ -786,19 +786,19 @@
         <v>308488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290680</v>
+        <v>290166</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>324561</v>
+        <v>324536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7689078588420292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7245208136646955</v>
+        <v>0.7232399349145925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.808970735106864</v>
+        <v>0.8089073565587783</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8065</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3760</v>
+        <v>4153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14466</v>
+        <v>14697</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06252451998794825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02915052485197844</v>
+        <v>0.032194806253008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1121480943074115</v>
+        <v>0.1139349198237152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -836,19 +836,19 @@
         <v>18542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11159</v>
+        <v>11110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29350</v>
+        <v>28103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06811524322351034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04099481911289296</v>
+        <v>0.04081548723590957</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1078190361235915</v>
+        <v>0.1032397326501677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -857,19 +857,19 @@
         <v>26607</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15902</v>
+        <v>17326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35963</v>
+        <v>37320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06631777060924443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03963663458189638</v>
+        <v>0.04318557158927031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08963780788273461</v>
+        <v>0.09302100953020806</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>11240</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5719</v>
+        <v>6449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18285</v>
+        <v>19052</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08713686002350315</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04433695399324002</v>
+        <v>0.04999212215632022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1417537223259699</v>
+        <v>0.1477016943841092</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -907,19 +907,19 @@
         <v>27698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18835</v>
+        <v>18545</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38854</v>
+        <v>39165</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1017516801602309</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06919355381537108</v>
+        <v>0.06812711851119638</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1427357273153396</v>
+        <v>0.1438775148643402</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -928,19 +928,19 @@
         <v>38938</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28462</v>
+        <v>27838</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53857</v>
+        <v>51455</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09705287146387283</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07094041775145667</v>
+        <v>0.06938596811025827</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.134237939528352</v>
+        <v>0.1282528266329579</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>5560</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2565</v>
+        <v>2542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12098</v>
+        <v>11432</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04310440926076621</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0198856197695915</v>
+        <v>0.01970380897693023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09378796586619288</v>
+        <v>0.08862965621052125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -978,19 +978,19 @@
         <v>17533</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9374</v>
+        <v>10021</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26494</v>
+        <v>27213</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06440752478821635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03443771810598437</v>
+        <v>0.03681282975495736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09732883354755127</v>
+        <v>0.09997038279832152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -999,19 +999,19 @@
         <v>23093</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14939</v>
+        <v>15042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33601</v>
+        <v>34470</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05755836321363435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03723664696620632</v>
+        <v>0.03749239999573531</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08375138061526086</v>
+        <v>0.08591780092465831</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4309</v>
+        <v>4264</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006499726235948793</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03340595668850411</v>
+        <v>0.03305987595311289</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1049,19 +1049,19 @@
         <v>3239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9048</v>
+        <v>8511</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01189908193744203</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003293686166492686</v>
+        <v>0.003278668423824695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03324054351087071</v>
+        <v>0.03126562076356052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>4077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1137</v>
+        <v>902</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10018</v>
+        <v>10306</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01016313587121919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002834521119029735</v>
+        <v>0.002248399038892134</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02497076399252618</v>
+        <v>0.02568714682935828</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>141872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132796</v>
+        <v>132541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148952</v>
+        <v>148405</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.872764343598846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8169324196554747</v>
+        <v>0.8153627070824716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9163169840216484</v>
+        <v>0.9129506145615041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>164</v>
@@ -1195,19 +1195,19 @@
         <v>164792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152613</v>
+        <v>152324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176241</v>
+        <v>175565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8094010077386415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7495833695751195</v>
+        <v>0.7481659969443029</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8656366184708061</v>
+        <v>0.8623148111150734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>312</v>
@@ -1216,19 +1216,19 @@
         <v>306665</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>292712</v>
+        <v>291575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320180</v>
+        <v>319090</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8375314935437876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7994248886318966</v>
+        <v>0.7963205693240564</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8744441909060939</v>
+        <v>0.8714673745751217</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>9120</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4451</v>
+        <v>4679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16838</v>
+        <v>16468</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.056106093664591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02738170163053532</v>
+        <v>0.02878133519008878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.103581676685311</v>
+        <v>0.1013048582527375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -1266,19 +1266,19 @@
         <v>18059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10734</v>
+        <v>9842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28168</v>
+        <v>27215</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08870060900947518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05272169916230981</v>
+        <v>0.04834189219310637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.138352520629821</v>
+        <v>0.1336685589141247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1287,19 +1287,19 @@
         <v>27180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17747</v>
+        <v>18591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37617</v>
+        <v>37995</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07423010270188753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04846764470954315</v>
+        <v>0.05077404314407731</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1027348495226477</v>
+        <v>0.1037675869894143</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>7847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4170</v>
+        <v>4048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15036</v>
+        <v>14322</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04827325205829214</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0256506730329835</v>
+        <v>0.0249040488142719</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09249617203688178</v>
+        <v>0.08810271123909644</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -1337,19 +1337,19 @@
         <v>16444</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9120</v>
+        <v>9776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26216</v>
+        <v>25646</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08076509349991141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04479446532680589</v>
+        <v>0.04801554815371411</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.128766286501187</v>
+        <v>0.1259654793385941</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1358,19 +1358,19 @@
         <v>24291</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15652</v>
+        <v>15656</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35081</v>
+        <v>33985</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06634016981102812</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04274803268080008</v>
+        <v>0.04275738925086502</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09580935732396577</v>
+        <v>0.09281612899395467</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>3715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1021</v>
+        <v>880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9753</v>
+        <v>8887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02285631067827089</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006278278136931411</v>
+        <v>0.00541285506412342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05999982900280087</v>
+        <v>0.05467128134189232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1408,19 +1408,19 @@
         <v>4303</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1110</v>
+        <v>1144</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9918</v>
+        <v>10637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02113328975197188</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005453229960848718</v>
+        <v>0.005620239790482354</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04871282443029047</v>
+        <v>0.05224356105774405</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1429,19 +1429,19 @@
         <v>8018</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3840</v>
+        <v>3792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15157</v>
+        <v>15753</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02189823394329665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01048768415681326</v>
+        <v>0.01035737706070042</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04139424058786931</v>
+        <v>0.04302327244887429</v>
       </c>
     </row>
     <row r="14">
@@ -1580,19 +1580,19 @@
         <v>130299</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122198</v>
+        <v>121462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136288</v>
+        <v>136051</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8991341747332293</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8432300770875345</v>
+        <v>0.8381567367710288</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9404613060091084</v>
+        <v>0.9388254818492745</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -1601,19 +1601,19 @@
         <v>122743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112613</v>
+        <v>111683</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131110</v>
+        <v>130443</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8403225363456304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7709708366170305</v>
+        <v>0.7645985629808654</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8975988449311493</v>
+        <v>0.8930357467130792</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>248</v>
@@ -1622,19 +1622,19 @@
         <v>253043</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>238494</v>
+        <v>240877</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>263309</v>
+        <v>264130</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8696120598757771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8196136666860612</v>
+        <v>0.8278002935177833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9048931007809217</v>
+        <v>0.9077138909626773</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>8007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3372</v>
+        <v>3865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15428</v>
+        <v>15489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05525116354341142</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02326791979216746</v>
+        <v>0.02666943455905013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1064615914813634</v>
+        <v>0.106884974021825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1672,19 +1672,19 @@
         <v>9472</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4295</v>
+        <v>4797</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17258</v>
+        <v>17613</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06484961688511405</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02940251402220213</v>
+        <v>0.03283809688509361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1181526078156872</v>
+        <v>0.12058076121474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1693,19 +1693,19 @@
         <v>17479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10636</v>
+        <v>10332</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26569</v>
+        <v>27108</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06006937044559139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.036550926336129</v>
+        <v>0.03550825551615781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09130626808626134</v>
+        <v>0.09315984974308833</v>
       </c>
     </row>
     <row r="18">
@@ -1722,19 +1722,19 @@
         <v>5690</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2129</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11737</v>
+        <v>12654</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03926733982504518</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01469427289437822</v>
+        <v>0.01380305535647601</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08099144998518636</v>
+        <v>0.08731744110107821</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1743,19 +1743,19 @@
         <v>8116</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4433</v>
+        <v>3417</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16698</v>
+        <v>15556</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05556315474068984</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03035100379895705</v>
+        <v>0.02339147227747024</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1143188300288487</v>
+        <v>0.1065012999673929</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1764,19 +1764,19 @@
         <v>13806</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8016</v>
+        <v>7742</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23266</v>
+        <v>22399</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04744747105119526</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02754796056489092</v>
+        <v>0.02660642416125403</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07995637945356934</v>
+        <v>0.07697663856461114</v>
       </c>
     </row>
     <row r="19">
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4630</v>
+        <v>5502</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006347321898314039</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03194714373124798</v>
+        <v>0.03796595134227401</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1814,19 +1814,19 @@
         <v>4611</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1145</v>
+        <v>1197</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10252</v>
+        <v>10416</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03156938865856754</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007837601216738967</v>
+        <v>0.008197245346310587</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0701893394269127</v>
+        <v>0.0713064120964383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1835,19 +1835,19 @@
         <v>5531</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2007</v>
+        <v>2076</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12675</v>
+        <v>11332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01900823004937043</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006898848393138966</v>
+        <v>0.007133750994506105</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04355806774589789</v>
+        <v>0.03894338843208012</v>
       </c>
     </row>
     <row r="20">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5458</v>
+        <v>6571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007695303369998224</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03736722211855453</v>
+        <v>0.0449837664724023</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5681</v>
+        <v>4575</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003862868578065845</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01952404513626211</v>
+        <v>0.01572209956695813</v>
       </c>
     </row>
     <row r="21">
@@ -2002,19 +2002,19 @@
         <v>46599</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41967</v>
+        <v>42798</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48524</v>
+        <v>48515</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9444157073033183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8505428611064844</v>
+        <v>0.8673745017404825</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9834288147013992</v>
+        <v>0.983244736219974</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2023,19 +2023,19 @@
         <v>32779</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27342</v>
+        <v>27005</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36813</v>
+        <v>36950</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.835448472821689</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6968867615480676</v>
+        <v>0.6882880055339688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.938259832674009</v>
+        <v>0.9417550238165656</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>82</v>
@@ -2044,19 +2044,19 @@
         <v>79377</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72820</v>
+        <v>73082</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84084</v>
+        <v>83990</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8961487735193683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8221162898661311</v>
+        <v>0.825076655857312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9492888036806798</v>
+        <v>0.9482243701730597</v>
       </c>
     </row>
     <row r="23">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6660</v>
+        <v>5845</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03893718693493219</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1349724078481692</v>
+        <v>0.1184582487069176</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3899</v>
+        <v>3055</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01872932806304828</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09937370698100682</v>
+        <v>0.0778703108198118</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2115,19 +2115,19 @@
         <v>2656</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6814</v>
+        <v>6916</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02998613489874359</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008283337672609265</v>
+        <v>0.008236336637615728</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0769270279194887</v>
+        <v>0.0780787513617877</v>
       </c>
     </row>
     <row r="24">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3419</v>
+        <v>4187</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01664710576174953</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06929085484464073</v>
+        <v>0.08485674660995303</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2165,19 +2165,19 @@
         <v>5721</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2074</v>
+        <v>2047</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11180</v>
+        <v>11956</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1458221991152628</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05285521141386306</v>
+        <v>0.05218538242638517</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.284959773185021</v>
+        <v>0.3047328123532115</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2186,19 +2186,19 @@
         <v>6543</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2425</v>
+        <v>2879</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12867</v>
+        <v>13027</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07386509158188816</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02737213400764718</v>
+        <v>0.03250875021844333</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1452619734443968</v>
+        <v>0.1470674157468034</v>
       </c>
     </row>
     <row r="25">
@@ -2384,19 +2384,19 @@
         <v>422058</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>406587</v>
+        <v>405029</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>434716</v>
+        <v>435244</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8687825496396252</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8369369284246942</v>
+        <v>0.8337291352623393</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8948378845590641</v>
+        <v>0.8959243438262364</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>520</v>
@@ -2405,19 +2405,19 @@
         <v>525515</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>503780</v>
+        <v>503566</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>545503</v>
+        <v>545508</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7948959212124396</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7620193691725922</v>
+        <v>0.7616951063302733</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8251302239209118</v>
+        <v>0.8251377476537523</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>957</v>
@@ -2426,19 +2426,19 @@
         <v>947573</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>922383</v>
+        <v>921343</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>971427</v>
+        <v>971177</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.826192403863833</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8042285508749907</v>
+        <v>0.8033218722594797</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8469903348765064</v>
+        <v>0.8467729265751478</v>
       </c>
     </row>
     <row r="29">
@@ -2455,19 +2455,19 @@
         <v>27113</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18359</v>
+        <v>18493</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38235</v>
+        <v>37844</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05581149685725968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03778995056457268</v>
+        <v>0.03806766127690217</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07870416297623167</v>
+        <v>0.07790032424888406</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -2476,19 +2476,19 @@
         <v>46808</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34970</v>
+        <v>35224</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>62287</v>
+        <v>62314</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07080234821498044</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05289636861589199</v>
+        <v>0.05328034743415563</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09421621622141192</v>
+        <v>0.09425608077966117</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2497,19 +2497,19 @@
         <v>73922</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58376</v>
+        <v>58130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>91632</v>
+        <v>91609</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06445260768095572</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0508984026702985</v>
+        <v>0.05068400350187345</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07989382488091229</v>
+        <v>0.07987403826980555</v>
       </c>
     </row>
     <row r="30">
@@ -2526,19 +2526,19 @@
         <v>25599</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18117</v>
+        <v>17736</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>36200</v>
+        <v>35981</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05269366933073789</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03729326154109032</v>
+        <v>0.03650757595259163</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07451488374124414</v>
+        <v>0.07406406798262782</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -2547,19 +2547,19 @@
         <v>57979</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45258</v>
+        <v>44742</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75360</v>
+        <v>74271</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08769906902716616</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06845797089458447</v>
+        <v>0.06767703143391067</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.113989762192036</v>
+        <v>0.1123417948715109</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>80</v>
@@ -2568,19 +2568,19 @@
         <v>83578</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>66523</v>
+        <v>65833</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>101527</v>
+        <v>100431</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07287167863698205</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05800172012670199</v>
+        <v>0.05739976600679406</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08852179458836436</v>
+        <v>0.08756584435121265</v>
       </c>
     </row>
     <row r="31">
@@ -2597,19 +2597,19 @@
         <v>10195</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5448</v>
+        <v>5224</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18277</v>
+        <v>18521</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0209864767982489</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01121343579473763</v>
+        <v>0.01075388820779881</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03762214798352925</v>
+        <v>0.03812368534373025</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2618,19 +2618,19 @@
         <v>26446</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16151</v>
+        <v>17780</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37805</v>
+        <v>38973</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0400030074693293</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02443039694769887</v>
+        <v>0.02689391120053018</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0571834556745074</v>
+        <v>0.0589510088432017</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>35</v>
@@ -2639,19 +2639,19 @@
         <v>36642</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25618</v>
+        <v>25030</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>49993</v>
+        <v>49377</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03194809232560109</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02233662668438002</v>
+        <v>0.02182390796062453</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0435889356648066</v>
+        <v>0.04305199021868651</v>
       </c>
     </row>
     <row r="32">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3393</v>
+        <v>4692</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001725807374128376</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006984842667567455</v>
+        <v>0.00965886433419778</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2689,19 +2689,19 @@
         <v>4363</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10273</v>
+        <v>10521</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006599654076084473</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001706829497869748</v>
+        <v>0.001696942507489746</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01553918636938285</v>
+        <v>0.01591450516628116</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2710,19 +2710,19 @@
         <v>5202</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1970</v>
+        <v>1842</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11360</v>
+        <v>11516</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004535217492628234</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001717616210657016</v>
+        <v>0.001606193309840335</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009904542322001801</v>
+        <v>0.01004083692778444</v>
       </c>
     </row>
     <row r="33">
@@ -3054,19 +3054,19 @@
         <v>102317</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91582</v>
+        <v>90517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112556</v>
+        <v>112613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7439456472687646</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6658899596942114</v>
+        <v>0.6581490886678135</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8183940728273155</v>
+        <v>0.8188104610103418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>127</v>
@@ -3075,19 +3075,19 @@
         <v>136245</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>121621</v>
+        <v>121522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150159</v>
+        <v>149200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6318352972122714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5640150889763773</v>
+        <v>0.5635573125706834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6963620199434456</v>
+        <v>0.6919120609014237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>218</v>
@@ -3096,19 +3096,19 @@
         <v>238562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>220275</v>
+        <v>220884</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>256656</v>
+        <v>256313</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6754941999827152</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6237145653700165</v>
+        <v>0.6254381289242364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7267279937144343</v>
+        <v>0.7257565550258802</v>
       </c>
     </row>
     <row r="5">
@@ -3125,19 +3125,19 @@
         <v>7564</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3185</v>
+        <v>3169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16341</v>
+        <v>16870</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0549981065418538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02316075385836916</v>
+        <v>0.02304077311437084</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1188153509384755</v>
+        <v>0.1226643744577045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3146,19 +3146,19 @@
         <v>11490</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6207</v>
+        <v>5353</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19227</v>
+        <v>19054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05328560000937507</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.028784427659501</v>
+        <v>0.02482639800325067</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08916699064252595</v>
+        <v>0.08836098036566165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -3167,19 +3167,19 @@
         <v>19054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11132</v>
+        <v>11606</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29454</v>
+        <v>30877</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05395249790200999</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03151910066505738</v>
+        <v>0.03286155930370992</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08340001172798117</v>
+        <v>0.08743028258608816</v>
       </c>
     </row>
     <row r="6">
@@ -3196,19 +3196,19 @@
         <v>19040</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11855</v>
+        <v>11736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28783</v>
+        <v>28374</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1384374850121099</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08619779589845093</v>
+        <v>0.0853298801623001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2092832097401638</v>
+        <v>0.206309701412594</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -3217,19 +3217,19 @@
         <v>44798</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33803</v>
+        <v>34076</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57555</v>
+        <v>57595</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2077497535387157</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1567588410986728</v>
+        <v>0.1580291176827926</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.266910779537951</v>
+        <v>0.2670979866117734</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -3238,19 +3238,19 @@
         <v>63838</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48517</v>
+        <v>50226</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78486</v>
+        <v>79764</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1807576195307753</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1373755803268432</v>
+        <v>0.1422149200605902</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2222339592216338</v>
+        <v>0.2258536943425159</v>
       </c>
     </row>
     <row r="7">
@@ -3267,19 +3267,19 @@
         <v>7544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3097</v>
+        <v>3193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14169</v>
+        <v>14222</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05484954928978981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0225187236260318</v>
+        <v>0.02321967735811352</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1030221264024312</v>
+        <v>0.1034057612957806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3288,19 +3288,19 @@
         <v>17543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11004</v>
+        <v>10831</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30093</v>
+        <v>27230</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08135662245630428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05103215231401415</v>
+        <v>0.0502283719251232</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1395538463516598</v>
+        <v>0.1262805898321736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3309,19 +3309,19 @@
         <v>25087</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16083</v>
+        <v>16157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36179</v>
+        <v>36410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07103402753511513</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04554076345377663</v>
+        <v>0.04574944939204042</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1024405157295379</v>
+        <v>0.1030956474139798</v>
       </c>
     </row>
     <row r="8">
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6074</v>
+        <v>5647</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007769211887481991</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04416102480599966</v>
+        <v>0.0410622812296634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3359,19 +3359,19 @@
         <v>5557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1886</v>
+        <v>2082</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11971</v>
+        <v>11902</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02577272678333349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008744280409522067</v>
+        <v>0.009653717568449502</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0555132321469204</v>
+        <v>0.05519418930309338</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -3380,19 +3380,19 @@
         <v>6626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2962</v>
+        <v>2512</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13559</v>
+        <v>13986</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01876165504938441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008385922980670207</v>
+        <v>0.007112189792858308</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03839190337865901</v>
+        <v>0.03960148870023451</v>
       </c>
     </row>
     <row r="9">
@@ -3484,19 +3484,19 @@
         <v>138783</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>126735</v>
+        <v>126074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149787</v>
+        <v>148964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8046780722500742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7348224737777278</v>
+        <v>0.7309929604022573</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8684805611751628</v>
+        <v>0.8637120365993919</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>159</v>
@@ -3505,19 +3505,19 @@
         <v>164646</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149375</v>
+        <v>148490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180528</v>
+        <v>179196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6664028393657262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.604592109617099</v>
+        <v>0.6010113084373527</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7306835419869664</v>
+        <v>0.7252950295216977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>288</v>
@@ -3526,19 +3526,19 @@
         <v>303428</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>285005</v>
+        <v>285167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322780</v>
+        <v>321356</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7232472162679382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.679333758476841</v>
+        <v>0.6797194224414679</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7693742232917364</v>
+        <v>0.765980515528473</v>
       </c>
     </row>
     <row r="11">
@@ -3555,19 +3555,19 @@
         <v>6195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2534</v>
+        <v>2250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12547</v>
+        <v>13243</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0359205579675859</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0146913934908941</v>
+        <v>0.01304363779326242</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07274843173610163</v>
+        <v>0.07678460070043903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -3576,19 +3576,19 @@
         <v>12318</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6572</v>
+        <v>6304</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21129</v>
+        <v>20572</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04985795935093099</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02660140894785079</v>
+        <v>0.02551474472466615</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08551815878062474</v>
+        <v>0.08326310656204321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -3597,19 +3597,19 @@
         <v>18513</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11066</v>
+        <v>11300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28650</v>
+        <v>28699</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04412835122989517</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02637733676576366</v>
+        <v>0.02693536876287983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06828886188435604</v>
+        <v>0.06840729496301463</v>
       </c>
     </row>
     <row r="12">
@@ -3626,19 +3626,19 @@
         <v>17883</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10439</v>
+        <v>10670</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28681</v>
+        <v>27881</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1036870122229386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06052546802973787</v>
+        <v>0.06186819409884264</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.166294560209763</v>
+        <v>0.1616569920062233</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -3647,19 +3647,19 @@
         <v>52911</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40419</v>
+        <v>39249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66147</v>
+        <v>66348</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2141570947753272</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1635958408880069</v>
+        <v>0.1588608037958913</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.267727749507924</v>
+        <v>0.2685411758241535</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -3668,19 +3668,19 @@
         <v>70794</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55658</v>
+        <v>56977</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>87239</v>
+        <v>87715</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1687433002870644</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1326667902155849</v>
+        <v>0.1358097428679636</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.207941823966775</v>
+        <v>0.2090753193145695</v>
       </c>
     </row>
     <row r="13">
@@ -3697,19 +3697,19 @@
         <v>8611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3315</v>
+        <v>3150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19076</v>
+        <v>17950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04992941443493071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01922056589296807</v>
+        <v>0.01826425940032457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1106069527403976</v>
+        <v>0.1040748237687715</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -3718,19 +3718,19 @@
         <v>13940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7549</v>
+        <v>7460</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23336</v>
+        <v>22978</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05642175560212376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03055560628599814</v>
+        <v>0.0301952396465392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09445349128193553</v>
+        <v>0.09300301218858062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3739,19 +3739,19 @@
         <v>22551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14022</v>
+        <v>14094</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34502</v>
+        <v>35170</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05375278097385941</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03342362750593789</v>
+        <v>0.03359498464216347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.082239626438499</v>
+        <v>0.08383066376009687</v>
       </c>
     </row>
     <row r="14">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4099</v>
+        <v>5261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005784943124470701</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02376927646911343</v>
+        <v>0.03050409883093362</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3789,19 +3789,19 @@
         <v>3251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8735</v>
+        <v>8699</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01316035090589185</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004247913455546598</v>
+        <v>0.004237131560048181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03535525787655091</v>
+        <v>0.03520769796977136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -3810,19 +3810,19 @@
         <v>4249</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1067</v>
+        <v>1098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10595</v>
+        <v>9746</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0101283512412428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002542441751400952</v>
+        <v>0.002616620062585148</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02525500015599483</v>
+        <v>0.02323103434492586</v>
       </c>
     </row>
     <row r="15">
@@ -3914,19 +3914,19 @@
         <v>142463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>130983</v>
+        <v>131100</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150835</v>
+        <v>150067</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8569968645706613</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7879363652081276</v>
+        <v>0.7886426768203945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9073588527746619</v>
+        <v>0.9027416118667004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -3935,19 +3935,19 @@
         <v>145100</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131094</v>
+        <v>131463</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>156236</v>
+        <v>157672</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7554502652987362</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6825274192041973</v>
+        <v>0.6844513146415331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8134258590890197</v>
+        <v>0.8209068395293088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>267</v>
@@ -3956,19 +3956,19 @@
         <v>287563</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>271545</v>
+        <v>270175</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>303554</v>
+        <v>303783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8025625106301583</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7578566794120358</v>
+        <v>0.7540336749576962</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8471908856297606</v>
+        <v>0.8478306816283964</v>
       </c>
     </row>
     <row r="17">
@@ -3985,19 +3985,19 @@
         <v>6004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2881</v>
+        <v>2059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13235</v>
+        <v>12467</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03611902170221008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.017331963554385</v>
+        <v>0.01238459344359918</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07961400970368171</v>
+        <v>0.07499455376513188</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -4006,19 +4006,19 @@
         <v>11050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5534</v>
+        <v>5324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19764</v>
+        <v>19740</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05752911156323069</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0288096650376992</v>
+        <v>0.02771978421033838</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.102899774894269</v>
+        <v>0.1027728915681763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -4027,19 +4027,19 @@
         <v>17054</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9945</v>
+        <v>10041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27765</v>
+        <v>26670</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04759596349788657</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0277560928423192</v>
+        <v>0.02802330378536052</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07749024776442874</v>
+        <v>0.07443485749119771</v>
       </c>
     </row>
     <row r="18">
@@ -4056,19 +4056,19 @@
         <v>10567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5256</v>
+        <v>5138</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20776</v>
+        <v>19578</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06356511056602442</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0316154875700525</v>
+        <v>0.03090929686801125</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1249818191235682</v>
+        <v>0.1177704897835959</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -4077,19 +4077,19 @@
         <v>23257</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15508</v>
+        <v>14938</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34804</v>
+        <v>35284</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.121084557824065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08074208566449809</v>
+        <v>0.07777471012376276</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1812051851464866</v>
+        <v>0.1837054766411436</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -4098,19 +4098,19 @@
         <v>33824</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23289</v>
+        <v>23146</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>49164</v>
+        <v>47303</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09439857985948526</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06499859243992279</v>
+        <v>0.06459852744995527</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.137212620505819</v>
+        <v>0.1320195257789571</v>
       </c>
     </row>
     <row r="19">
@@ -4127,19 +4127,19 @@
         <v>4154</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9591</v>
+        <v>9476</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02499134821644113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006246837440456941</v>
+        <v>0.006173443188056125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05769263777924824</v>
+        <v>0.05700296445925518</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -4148,19 +4148,19 @@
         <v>7371</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3137</v>
+        <v>3121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13934</v>
+        <v>14638</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03837426643638459</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01633078461712655</v>
+        <v>0.01624939912112511</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07254731850057998</v>
+        <v>0.07620962500619173</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -4169,19 +4169,19 @@
         <v>11525</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6096</v>
+        <v>5355</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19798</v>
+        <v>19960</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03216530098654257</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01701359711068636</v>
+        <v>0.01494525265092395</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05525397109730996</v>
+        <v>0.05570772808466481</v>
       </c>
     </row>
     <row r="20">
@@ -4198,19 +4198,19 @@
         <v>3047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8232</v>
+        <v>8270</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01832765494466313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005789226380368845</v>
+        <v>0.005863678636435182</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04952090112308355</v>
+        <v>0.04974832667196961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -4219,19 +4219,19 @@
         <v>5294</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1101</v>
+        <v>1115</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12889</v>
+        <v>14463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02756179887758355</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005730568704597092</v>
+        <v>0.00580586968986599</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06710575727080965</v>
+        <v>0.07529787500659592</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4240,19 +4240,19 @@
         <v>8341</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3272</v>
+        <v>3180</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17479</v>
+        <v>16348</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02327764502592732</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009132762008218437</v>
+        <v>0.008875659713213016</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04878113811062119</v>
+        <v>0.04562485319412021</v>
       </c>
     </row>
     <row r="21">
@@ -4344,19 +4344,19 @@
         <v>65385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55816</v>
+        <v>56680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71897</v>
+        <v>71507</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8372269619384842</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7146966901191526</v>
+        <v>0.7257609194752699</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9206108043116714</v>
+        <v>0.9156226106987535</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -4365,19 +4365,19 @@
         <v>60549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51438</v>
+        <v>51339</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68253</v>
+        <v>68847</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7119221427462203</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.604794660989452</v>
+        <v>0.6036306012389142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.802505976524108</v>
+        <v>0.8094898024639475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -4386,19 +4386,19 @@
         <v>125933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>113893</v>
+        <v>113127</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136347</v>
+        <v>136359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7719042938063108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6981045116667279</v>
+        <v>0.6934088429740312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8357342457149742</v>
+        <v>0.8358101513834512</v>
       </c>
     </row>
     <row r="23">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6991</v>
+        <v>7637</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02674326991698076</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0895139689252568</v>
+        <v>0.09779056560255815</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -4436,19 +4436,19 @@
         <v>7082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2963</v>
+        <v>2850</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13554</v>
+        <v>13498</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08326738871314469</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03484030170121102</v>
+        <v>0.03351364803639545</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1593617352513994</v>
+        <v>0.1587071369172366</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -4457,19 +4457,19 @@
         <v>9170</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4222</v>
+        <v>4709</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16258</v>
+        <v>17622</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05620986407821572</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02587833589627544</v>
+        <v>0.02886644497056158</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09965089763279783</v>
+        <v>0.1080144913502851</v>
       </c>
     </row>
     <row r="24">
@@ -4486,19 +4486,19 @@
         <v>8491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3273</v>
+        <v>3343</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17361</v>
+        <v>18089</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1087198457022893</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04191408381747427</v>
+        <v>0.04280254688812271</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2223049076611804</v>
+        <v>0.2316170815339454</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -4507,19 +4507,19 @@
         <v>13018</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6878</v>
+        <v>6517</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20653</v>
+        <v>21159</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1530589712186277</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08086706390049769</v>
+        <v>0.07662932976548616</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2428303989629468</v>
+        <v>0.2487785095355492</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -4528,19 +4528,19 @@
         <v>21508</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13646</v>
+        <v>12709</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>32429</v>
+        <v>33460</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1318342797683126</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08364307571995003</v>
+        <v>0.07790132977974512</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1987725094175795</v>
+        <v>0.2050942643908499</v>
       </c>
     </row>
     <row r="25">
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6363</v>
+        <v>4637</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01409246044584042</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0814745854534783</v>
+        <v>0.05937306133688577</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4581,16 +4581,16 @@
         <v>1037</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8957</v>
+        <v>8968</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03904902097912576</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01218704847240075</v>
+        <v>0.01219396278413815</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1053183374746345</v>
+        <v>0.1054435484233525</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4599,19 +4599,19 @@
         <v>4422</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1140</v>
+        <v>1101</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10943</v>
+        <v>10083</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02710256757456085</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006986069326184829</v>
+        <v>0.006746851494282076</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06707680239109778</v>
+        <v>0.06180077780781688</v>
       </c>
     </row>
     <row r="26">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5388</v>
+        <v>5335</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01270247634288152</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06335462176194791</v>
+        <v>0.06273149420626291</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7269</v>
+        <v>6757</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01294899477260006</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04455411792977505</v>
+        <v>0.04141783819106343</v>
       </c>
     </row>
     <row r="27">
@@ -4774,19 +4774,19 @@
         <v>448947</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>428033</v>
+        <v>429220</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>468975</v>
+        <v>468943</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8098851351230347</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.772157633166398</v>
+        <v>0.7742981034602006</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8460148239023129</v>
+        <v>0.8459572667531451</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>476</v>
@@ -4795,19 +4795,19 @@
         <v>506540</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>478859</v>
+        <v>480632</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>531997</v>
+        <v>531119</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6846787404890067</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6472634510949135</v>
+        <v>0.649659551258706</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7190887038039022</v>
+        <v>0.7179015015322716</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>883</v>
@@ -4816,19 +4816,19 @@
         <v>955487</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>919678</v>
+        <v>919115</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>987953</v>
+        <v>988324</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.738309225209545</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7106399787547196</v>
+        <v>0.710204797293048</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7633962071906519</v>
+        <v>0.763682553501577</v>
       </c>
     </row>
     <row r="29">
@@ -4845,19 +4845,19 @@
         <v>21852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13275</v>
+        <v>13744</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33173</v>
+        <v>32548</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03942037795439263</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02394770064789179</v>
+        <v>0.02479455710902375</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05984386363394815</v>
+        <v>0.05871530865329026</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -4866,19 +4866,19 @@
         <v>41940</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30429</v>
+        <v>30587</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>56134</v>
+        <v>56722</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05668932454511059</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04113070596797502</v>
+        <v>0.0413444516029053</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07587513904284141</v>
+        <v>0.07667049945768997</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>60</v>
@@ -4887,19 +4887,19 @@
         <v>63792</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>49136</v>
+        <v>50458</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>82040</v>
+        <v>82548</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04929240221554142</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03796753149350877</v>
+        <v>0.03898878926599374</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06339235248483442</v>
+        <v>0.06378561298686754</v>
       </c>
     </row>
     <row r="30">
@@ -4916,19 +4916,19 @@
         <v>55980</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42249</v>
+        <v>40764</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73047</v>
+        <v>73917</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1009859766288262</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07621516905510209</v>
+        <v>0.07353766102890784</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.131775169293555</v>
+        <v>0.1333432460479003</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>123</v>
@@ -4937,19 +4937,19 @@
         <v>133983</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>113036</v>
+        <v>114091</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>158133</v>
+        <v>156022</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1811024167027346</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1527877584001656</v>
+        <v>0.1542138653416001</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2137454661924919</v>
+        <v>0.2108915661976916</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>171</v>
@@ -4958,19 +4958,19 @@
         <v>189963</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>163553</v>
+        <v>164110</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>217916</v>
+        <v>219069</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1467856110171571</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1263785161782664</v>
+        <v>0.1268082353195412</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1683845562678231</v>
+        <v>0.1692758983885499</v>
       </c>
     </row>
     <row r="31">
@@ -4987,19 +4987,19 @@
         <v>21410</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12709</v>
+        <v>12863</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33577</v>
+        <v>32305</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03862280526361795</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02292635370288013</v>
+        <v>0.02320531862356</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06057129636283513</v>
+        <v>0.05827705768450452</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -5008,19 +5008,19 @@
         <v>42175</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29914</v>
+        <v>30355</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>56724</v>
+        <v>55285</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05700683360904282</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04043475173340019</v>
+        <v>0.04102954681529897</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07667325230355558</v>
+        <v>0.07472801480220559</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>57</v>
@@ -5029,19 +5029,19 @@
         <v>63585</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>48993</v>
+        <v>49001</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>81097</v>
+        <v>81887</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04913228092215237</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03785715630257075</v>
+        <v>0.03786368108068734</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06266381548346221</v>
+        <v>0.06327439287384892</v>
       </c>
     </row>
     <row r="32">
@@ -5058,19 +5058,19 @@
         <v>6145</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2932</v>
+        <v>2076</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12518</v>
+        <v>12344</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0110857050301285</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005289252897130101</v>
+        <v>0.003744915149601187</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02258253827116295</v>
+        <v>0.02226860091498942</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -5079,19 +5079,19 @@
         <v>15183</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8534</v>
+        <v>7817</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25912</v>
+        <v>24313</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02052268465410536</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01153508186909867</v>
+        <v>0.01056643459480549</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03502426831030138</v>
+        <v>0.03286299490861261</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -5100,19 +5100,19 @@
         <v>21328</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13310</v>
+        <v>13426</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32900</v>
+        <v>32859</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0164804806356041</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0102849002797877</v>
+        <v>0.0103740184375297</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02542200048761438</v>
+        <v>0.02539069396272314</v>
       </c>
     </row>
     <row r="33">
@@ -5444,19 +5444,19 @@
         <v>131743</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121150</v>
+        <v>119807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141056</v>
+        <v>140737</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7914703828143659</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7278271433185408</v>
+        <v>0.7197628715821182</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.847420061539892</v>
+        <v>0.8455015594633754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -5465,19 +5465,19 @@
         <v>160397</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142603</v>
+        <v>143575</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>175414</v>
+        <v>176335</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6160160731034615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.54767855489586</v>
+        <v>0.5514109961554359</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6736882305871114</v>
+        <v>0.6772258275124351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>278</v>
@@ -5486,19 +5486,19 @@
         <v>292141</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>271615</v>
+        <v>270823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>311954</v>
+        <v>310587</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6844390775783877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.63635204174168</v>
+        <v>0.634495410292616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7308581826306546</v>
+        <v>0.7276556604087796</v>
       </c>
     </row>
     <row r="5">
@@ -5515,19 +5515,19 @@
         <v>10153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5028</v>
+        <v>5111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17833</v>
+        <v>17515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06099467077438627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03020954326052419</v>
+        <v>0.03070316821225431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1071369692716304</v>
+        <v>0.1052214045157424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -5536,19 +5536,19 @@
         <v>30368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20565</v>
+        <v>20612</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44066</v>
+        <v>44384</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1166290189448135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07898289300617348</v>
+        <v>0.07916189810048499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.169239099249681</v>
+        <v>0.1704595039592767</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -5557,19 +5557,19 @@
         <v>40520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28720</v>
+        <v>29262</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54404</v>
+        <v>56840</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09493294741429943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06728691051946824</v>
+        <v>0.06855732134009515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1274608798456683</v>
+        <v>0.1331663648102689</v>
       </c>
     </row>
     <row r="6">
@@ -5586,19 +5586,19 @@
         <v>16120</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10049</v>
+        <v>9646</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25318</v>
+        <v>24983</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09684195808081876</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0603722860229896</v>
+        <v>0.05794986421158868</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1521035327573841</v>
+        <v>0.1500903709844978</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -5607,19 +5607,19 @@
         <v>51584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38730</v>
+        <v>37878</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67214</v>
+        <v>65919</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1981132084803877</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1487435365232232</v>
+        <v>0.1454730752906315</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.258139308593154</v>
+        <v>0.253167347711438</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -5628,19 +5628,19 @@
         <v>67704</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51539</v>
+        <v>53135</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84509</v>
+        <v>85756</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1586198313687714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1207471050174188</v>
+        <v>0.1244870457072113</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1979915388231198</v>
+        <v>0.2009116825607085</v>
       </c>
     </row>
     <row r="7">
@@ -5657,19 +5657,19 @@
         <v>7612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3651</v>
+        <v>3456</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14103</v>
+        <v>14043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04573237374140216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02193572099856529</v>
+        <v>0.02076244655180173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08472541470678197</v>
+        <v>0.08436522675935579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -5678,19 +5678,19 @@
         <v>14151</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7566</v>
+        <v>7819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23109</v>
+        <v>23320</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05434977535545685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02905742644536032</v>
+        <v>0.03002848905169348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0887525021526623</v>
+        <v>0.08956231022973873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5699,19 +5699,19 @@
         <v>21764</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14150</v>
+        <v>13787</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33487</v>
+        <v>32930</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05098919384467932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03315177929466689</v>
+        <v>0.03230037120145862</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07845375101015575</v>
+        <v>0.0771489217257557</v>
       </c>
     </row>
     <row r="8">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0049606145890269</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02509158196117527</v>
+        <v>0.02508481609815984</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -5749,19 +5749,19 @@
         <v>3878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11376</v>
+        <v>11371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01489192411588042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004801943915796718</v>
+        <v>0.004777910829922479</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04369100155281246</v>
+        <v>0.04367016830573938</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -5770,19 +5770,19 @@
         <v>4703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10582</v>
+        <v>11164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01101894979386214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002951319693079953</v>
+        <v>0.002955210627553925</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02479302288361823</v>
+        <v>0.02615592857197174</v>
       </c>
     </row>
     <row r="9">
@@ -5874,19 +5874,19 @@
         <v>144900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134790</v>
+        <v>135835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151832</v>
+        <v>153179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8535439968217512</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7939887233597666</v>
+        <v>0.8001466835442992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8943753298453792</v>
+        <v>0.9023082604203508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -5895,19 +5895,19 @@
         <v>156621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140466</v>
+        <v>140395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170116</v>
+        <v>170532</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7093160233951896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6361540322823285</v>
+        <v>0.6358331845999917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7704374071883099</v>
+        <v>0.772317315960917</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -5916,19 +5916,19 @@
         <v>301521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>284831</v>
+        <v>282380</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>317868</v>
+        <v>316522</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7720057585482726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7292741302187795</v>
+        <v>0.7229988801955778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8138608127826877</v>
+        <v>0.8104136838183968</v>
       </c>
     </row>
     <row r="11">
@@ -5945,19 +5945,19 @@
         <v>5916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2525</v>
+        <v>2704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12022</v>
+        <v>11837</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03484738697246536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01487078225070988</v>
+        <v>0.01592995039713545</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0708165946352685</v>
+        <v>0.06972725284504346</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -5966,19 +5966,19 @@
         <v>23796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14927</v>
+        <v>14867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36997</v>
+        <v>35839</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.107770325068554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06760084728907163</v>
+        <v>0.06733286548310735</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1675571605634827</v>
+        <v>0.162308962387732</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -5987,19 +5987,19 @@
         <v>29712</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20339</v>
+        <v>19755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43548</v>
+        <v>42960</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07607384090380769</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05207665604165599</v>
+        <v>0.0505790180219239</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1114992121119879</v>
+        <v>0.1099926119593607</v>
       </c>
     </row>
     <row r="12">
@@ -6016,19 +6016,19 @@
         <v>15628</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9962</v>
+        <v>8833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24423</v>
+        <v>23211</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09205728425873522</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05867970145798534</v>
+        <v>0.05203355030907095</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1438624397453248</v>
+        <v>0.1367229698841722</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -6037,19 +6037,19 @@
         <v>31844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21380</v>
+        <v>20741</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46169</v>
+        <v>45461</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1442197112832699</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09682966467007771</v>
+        <v>0.09393166456212805</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2090931949267366</v>
+        <v>0.2058872911340685</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -6058,19 +6058,19 @@
         <v>47472</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35502</v>
+        <v>35053</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61596</v>
+        <v>62855</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1215469338918913</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09089946913342392</v>
+        <v>0.0897486024694029</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1577082529923377</v>
+        <v>0.1609323635926351</v>
       </c>
     </row>
     <row r="13">
@@ -6087,19 +6087,19 @@
         <v>3319</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>787</v>
+        <v>875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8426</v>
+        <v>8582</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01955133194704821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004636367826673949</v>
+        <v>0.005157187620785775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04963635388442911</v>
+        <v>0.05055486133717552</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -6108,19 +6108,19 @@
         <v>7506</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2626</v>
+        <v>2703</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15204</v>
+        <v>14442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03399523184737407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01189495972491549</v>
+        <v>0.01224267181966515</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06885584672856694</v>
+        <v>0.06540705197508892</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -6129,19 +6129,19 @@
         <v>10825</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5054</v>
+        <v>5678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19231</v>
+        <v>19225</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02771708595225668</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01294130936057582</v>
+        <v>0.01453891481060854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04923848399217041</v>
+        <v>0.049222022834386</v>
       </c>
     </row>
     <row r="14">
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5265</v>
+        <v>5783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004698708405612392</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02384514053580954</v>
+        <v>0.02619040252744086</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6259</v>
+        <v>5116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002656380703771732</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01602631113687862</v>
+        <v>0.0130988811651947</v>
       </c>
     </row>
     <row r="15">
@@ -6296,19 +6296,19 @@
         <v>136224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125455</v>
+        <v>126588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142770</v>
+        <v>142763</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8745113231224566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8053802315116726</v>
+        <v>0.8126552741641856</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9165384326243172</v>
+        <v>0.9164913885699392</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -6317,19 +6317,19 @@
         <v>132464</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117166</v>
+        <v>117171</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145275</v>
+        <v>145782</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7195008740263894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6364075072497088</v>
+        <v>0.6364341254791017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7890813732692705</v>
+        <v>0.7918373746290315</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>257</v>
@@ -6338,19 +6338,19 @@
         <v>268688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>251617</v>
+        <v>251290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>284121</v>
+        <v>282734</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7905446919055735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.740318324420829</v>
+        <v>0.7393558518475457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8359517308266149</v>
+        <v>0.8318726024504987</v>
       </c>
     </row>
     <row r="17">
@@ -6367,7 +6367,7 @@
         <v>7167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3347</v>
+        <v>3196</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>14168</v>
@@ -6376,10 +6376,10 @@
         <v>0.04600983126891248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02148363583380805</v>
+        <v>0.02051882398025021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09095556916086936</v>
+        <v>0.09095721646657109</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -6388,19 +6388,19 @@
         <v>11773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6317</v>
+        <v>6019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20540</v>
+        <v>20196</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06394897901366599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03431020946234466</v>
+        <v>0.03269451954126951</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1115635601160754</v>
+        <v>0.1096955869247101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -6409,19 +6409,19 @@
         <v>18940</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11295</v>
+        <v>11511</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29232</v>
+        <v>29188</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05572717491776148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03323345569687983</v>
+        <v>0.03386692221873149</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08600841783029912</v>
+        <v>0.08587759162296388</v>
       </c>
     </row>
     <row r="18">
@@ -6438,19 +6438,19 @@
         <v>6648</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2715</v>
+        <v>2815</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12425</v>
+        <v>13107</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04267941941595809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01742668181420761</v>
+        <v>0.01807299245221142</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07976142539452515</v>
+        <v>0.0841451540247064</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -6459,19 +6459,19 @@
         <v>28047</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18388</v>
+        <v>17835</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40462</v>
+        <v>40748</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1523409136711925</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09987806898352011</v>
+        <v>0.0968731814946604</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2197737069865058</v>
+        <v>0.221329317420754</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -6480,19 +6480,19 @@
         <v>34695</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23030</v>
+        <v>23113</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48739</v>
+        <v>49432</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1020812616821852</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06775888067749736</v>
+        <v>0.06800280099228501</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1434015077756324</v>
+        <v>0.1454404766212051</v>
       </c>
     </row>
     <row r="19">
@@ -6509,19 +6509,19 @@
         <v>5732</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2589</v>
+        <v>2235</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11554</v>
+        <v>11681</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03679942619267278</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01662294381096481</v>
+        <v>0.01434532181034002</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07417021568443144</v>
+        <v>0.07498659964625773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -6530,19 +6530,19 @@
         <v>7383</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2607</v>
+        <v>3131</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14830</v>
+        <v>15379</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04010422638877593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01415975935043728</v>
+        <v>0.01700409433184661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08054957420749001</v>
+        <v>0.08353110855143354</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -6551,19 +6551,19 @@
         <v>13116</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6982</v>
+        <v>7391</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22800</v>
+        <v>22298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03858958253974395</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02054128909104564</v>
+        <v>0.02174669979705678</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.067083933879378</v>
+        <v>0.06560582296657767</v>
       </c>
     </row>
     <row r="20">
@@ -6593,19 +6593,19 @@
         <v>4438</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11760</v>
+        <v>12480</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0241050068999761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006510534032187739</v>
+        <v>0.006477830169158162</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06387587091349319</v>
+        <v>0.06778960070693112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6614,19 +6614,19 @@
         <v>4438</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12924</v>
+        <v>12552</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01305728895473581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003489675972521835</v>
+        <v>0.003456674316759625</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03802542432975726</v>
+        <v>0.03692989518275924</v>
       </c>
     </row>
     <row r="21">
@@ -6718,19 +6718,19 @@
         <v>69141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59766</v>
+        <v>61695</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75321</v>
+        <v>76178</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7861845069773163</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6795867570609176</v>
+        <v>0.7015223501971748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8564608565668563</v>
+        <v>0.8661975817782965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -6739,19 +6739,19 @@
         <v>83265</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72740</v>
+        <v>73098</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91512</v>
+        <v>92436</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7815622374054904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6827721153957355</v>
+        <v>0.6861380412850914</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8589751327989792</v>
+        <v>0.8676489799471765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>141</v>
@@ -6760,19 +6760,19 @@
         <v>152406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139571</v>
+        <v>140134</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163772</v>
+        <v>163109</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7836524461995527</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.717658748124557</v>
+        <v>0.7205557531161514</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8420956845657828</v>
+        <v>0.8386902924177246</v>
       </c>
     </row>
     <row r="23">
@@ -6789,19 +6789,19 @@
         <v>6260</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2149</v>
+        <v>2702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12292</v>
+        <v>12628</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07117530924955744</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0244402480013048</v>
+        <v>0.03072207946368961</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1397675317793433</v>
+        <v>0.1435872453214266</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -6810,19 +6810,19 @@
         <v>5523</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2177</v>
+        <v>2088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12489</v>
+        <v>12251</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05184054884504995</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02043191357693985</v>
+        <v>0.01959595939123608</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1172241726187065</v>
+        <v>0.1149942448069327</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -6831,19 +6831,19 @@
         <v>11782</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6346</v>
+        <v>6254</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20487</v>
+        <v>21081</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06058380485826948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03262834278654188</v>
+        <v>0.03215849912778077</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1053393633822396</v>
+        <v>0.1083957353228708</v>
       </c>
     </row>
     <row r="24">
@@ -6860,19 +6860,19 @@
         <v>7277</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3666</v>
+        <v>3245</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13649</v>
+        <v>13510</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08274325293177284</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04168832520629321</v>
+        <v>0.03689643835445315</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1552039418532815</v>
+        <v>0.1536217095068463</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -6881,19 +6881,19 @@
         <v>15273</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8148</v>
+        <v>8131</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24701</v>
+        <v>25395</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1433553923322548</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07648250593928545</v>
+        <v>0.07632009684920293</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2318593968223464</v>
+        <v>0.2383674455565774</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -6902,19 +6902,19 @@
         <v>22549</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14081</v>
+        <v>13925</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33240</v>
+        <v>34200</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1159463403864227</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07240291318787238</v>
+        <v>0.07159934757523966</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1709158847417606</v>
+        <v>0.175851076557331</v>
       </c>
     </row>
     <row r="25">
@@ -6931,19 +6931,19 @@
         <v>3464</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>983</v>
+        <v>862</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8412</v>
+        <v>7979</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03938270113263666</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01117451979043351</v>
+        <v>0.009797396255769596</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0956537736521304</v>
+        <v>0.09073060111147224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7467</v>
+        <v>7666</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02324182141720483</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07009190544032655</v>
+        <v>0.07195485414808575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -6973,19 +6973,19 @@
         <v>5940</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2384</v>
+        <v>2150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12713</v>
+        <v>12086</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03054079180412013</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01225709828468079</v>
+        <v>0.01105451956098412</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06536754938667813</v>
+        <v>0.06214588105169586</v>
       </c>
     </row>
     <row r="26">
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6342</v>
+        <v>6442</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0205142297087167</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07211627540437911</v>
+        <v>0.07324939254871317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5644</v>
+        <v>6420</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009276616751635044</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02901907507290395</v>
+        <v>0.0330113509535532</v>
       </c>
     </row>
     <row r="27">
@@ -7140,19 +7140,19 @@
         <v>482009</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>463762</v>
+        <v>463721</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>497827</v>
+        <v>498985</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8311444580938652</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7996808763569192</v>
+        <v>0.7996104192418703</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8584197076059149</v>
+        <v>0.8604163622281538</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>458</v>
@@ -7161,19 +7161,19 @@
         <v>532746</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>502698</v>
+        <v>502582</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>561613</v>
+        <v>558628</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6902426511867694</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6513120532576089</v>
+        <v>0.651161609738185</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7276443230235943</v>
+        <v>0.7237763161654542</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>967</v>
@@ -7182,19 +7182,19 @@
         <v>1014755</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>982537</v>
+        <v>979076</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1046941</v>
+        <v>1044381</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7506926154888763</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7268589000755017</v>
+        <v>0.7242983982546596</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7745035077558085</v>
+        <v>0.772609154609704</v>
       </c>
     </row>
     <row r="29">
@@ -7211,19 +7211,19 @@
         <v>29495</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20657</v>
+        <v>20501</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41888</v>
+        <v>40381</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05085952275539889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03561934382351126</v>
+        <v>0.03535099561004623</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07222967981074867</v>
+        <v>0.06963038465522904</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -7232,19 +7232,19 @@
         <v>71460</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>55348</v>
+        <v>54542</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>90460</v>
+        <v>90030</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09258590655709271</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07171054060720518</v>
+        <v>0.07066603613955694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.117202666491252</v>
+        <v>0.1166452487230405</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -7253,19 +7253,19 @@
         <v>100955</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>83115</v>
+        <v>83331</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>123013</v>
+        <v>123799</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07468437309463306</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06148673271955135</v>
+        <v>0.06164631442903806</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0910022611958507</v>
+        <v>0.09158388132922715</v>
       </c>
     </row>
     <row r="30">
@@ -7282,19 +7282,19 @@
         <v>45673</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34567</v>
+        <v>35081</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59611</v>
+        <v>60769</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07875516816475624</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05960423235133352</v>
+        <v>0.0604917226600086</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1027887713254293</v>
+        <v>0.1047854238177993</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>100</v>
@@ -7303,19 +7303,19 @@
         <v>126748</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>105099</v>
+        <v>103985</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>150849</v>
+        <v>151845</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1642187395761928</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1361700027796256</v>
+        <v>0.1347268769196213</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1954450083861567</v>
+        <v>0.1967356386451432</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>149</v>
@@ -7324,19 +7324,19 @@
         <v>172421</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>145332</v>
+        <v>146916</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>198013</v>
+        <v>201491</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1275529937326473</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1075134668179811</v>
+        <v>0.108685007479209</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1464855989444734</v>
+        <v>0.149058297373218</v>
       </c>
     </row>
     <row r="31">
@@ -7353,19 +7353,19 @@
         <v>20127</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12934</v>
+        <v>13148</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29388</v>
+        <v>29670</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03470612158746033</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02230292478854189</v>
+        <v>0.02267161753654999</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0506747085391156</v>
+        <v>0.05116026528255747</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>25</v>
@@ -7374,19 +7374,19 @@
         <v>31517</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21110</v>
+        <v>20856</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45039</v>
+        <v>44985</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04083479621804073</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02735038770250275</v>
+        <v>0.02702217062507555</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05835455806507742</v>
+        <v>0.05828353051704801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>48</v>
@@ -7395,19 +7395,19 @@
         <v>51645</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38251</v>
+        <v>39250</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68133</v>
+        <v>68414</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03820546043612212</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02829703914129524</v>
+        <v>0.029036336366627</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05040335320081701</v>
+        <v>0.05061124314983036</v>
       </c>
     </row>
     <row r="32">
@@ -7427,16 +7427,16 @@
         <v>826</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7173</v>
+        <v>7847</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004534729398519327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00142400473774911</v>
+        <v>0.001424760412475416</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0123682251599447</v>
+        <v>0.01353023703030848</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -7445,19 +7445,19 @@
         <v>9353</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3838</v>
+        <v>3747</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18586</v>
+        <v>18661</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0121179064619043</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004972321583859605</v>
+        <v>0.004854724617810075</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02408005292648874</v>
+        <v>0.02417750919686409</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -7466,19 +7466,19 @@
         <v>11983</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5990</v>
+        <v>6015</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21444</v>
+        <v>21598</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00886455724772121</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004431202951302102</v>
+        <v>0.004449802303587634</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0158636558633257</v>
+        <v>0.01597781354736146</v>
       </c>
     </row>
     <row r="33">
@@ -7810,19 +7810,19 @@
         <v>40241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32978</v>
+        <v>33495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46189</v>
+        <v>46556</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6072052695860621</v>
+        <v>0.6072052695860622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4976032490632761</v>
+        <v>0.5054132806468931</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6969575479365467</v>
+        <v>0.7024859467721417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -7831,19 +7831,19 @@
         <v>60648</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53163</v>
+        <v>52215</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69842</v>
+        <v>69802</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.428761341556072</v>
+        <v>0.4287613415560718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3758431796996334</v>
+        <v>0.3691449920803181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4937593294685526</v>
+        <v>0.4934748295075976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -7852,19 +7852,19 @@
         <v>100889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89456</v>
+        <v>89014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112124</v>
+        <v>111387</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4856931960215353</v>
+        <v>0.4856931960215352</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.430656133827214</v>
+        <v>0.4285285581925643</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.539779437330494</v>
+        <v>0.5362332975190094</v>
       </c>
     </row>
     <row r="5">
@@ -7881,19 +7881,19 @@
         <v>8981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5281</v>
+        <v>5307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14332</v>
+        <v>14476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1355100631979606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07969135551795596</v>
+        <v>0.08007429779672959</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2162601698653311</v>
+        <v>0.2184292349080817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -7902,19 +7902,19 @@
         <v>27502</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21177</v>
+        <v>21281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34629</v>
+        <v>35103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1944328384147677</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1497138493420991</v>
+        <v>0.150450135747313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2448129633606421</v>
+        <v>0.2481697483854347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -7923,19 +7923,19 @@
         <v>36483</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28613</v>
+        <v>28777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45117</v>
+        <v>45213</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1756337517751782</v>
+        <v>0.1756337517751781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1377480503530239</v>
+        <v>0.1385367267781959</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2172002968516004</v>
+        <v>0.2176611925694798</v>
       </c>
     </row>
     <row r="6">
@@ -7952,19 +7952,19 @@
         <v>14510</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9535</v>
+        <v>9929</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20981</v>
+        <v>20549</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2189395958155941</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1438755324202621</v>
+        <v>0.1498169849935257</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3165788682551709</v>
+        <v>0.3100599168660988</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -7973,19 +7973,19 @@
         <v>37044</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30136</v>
+        <v>30099</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45629</v>
+        <v>45159</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2618908485140027</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2130523042506339</v>
+        <v>0.212789046134824</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3225853365856461</v>
+        <v>0.319260775753656</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>91</v>
@@ -7994,19 +7994,19 @@
         <v>51554</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41834</v>
+        <v>43258</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61036</v>
+        <v>61392</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2481874152017515</v>
+        <v>0.2481874152017514</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.201396586120061</v>
+        <v>0.2082499972895067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.293836821189441</v>
+        <v>0.295549778727532</v>
       </c>
     </row>
     <row r="7">
@@ -8026,16 +8026,16 @@
         <v>608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6704</v>
+        <v>6893</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03834507140038337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009172489145015205</v>
+        <v>0.009180304063546764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1011497957336814</v>
+        <v>0.1040026560185969</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -8044,19 +8044,19 @@
         <v>14638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9446</v>
+        <v>9793</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21276</v>
+        <v>21145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1034827021355823</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0667808253794222</v>
+        <v>0.06923649105933732</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1504128837032679</v>
+        <v>0.1494870909844984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -8065,19 +8065,19 @@
         <v>17179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11439</v>
+        <v>11891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24276</v>
+        <v>24907</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08270078955283426</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05507086244458265</v>
+        <v>0.05724409714671636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1168663523318868</v>
+        <v>0.1199044597610337</v>
       </c>
     </row>
     <row r="8">
@@ -8110,16 +8110,16 @@
         <v>316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5748</v>
+        <v>5706</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01143226937957526</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002233908332006334</v>
+        <v>0.002235007316230984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04063694147089088</v>
+        <v>0.04034231434230756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -8128,19 +8128,19 @@
         <v>1617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5150</v>
+        <v>5201</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.007784847448700904</v>
+        <v>0.007784847448700903</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001502002656740371</v>
+        <v>0.001511322897363404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02479230842479478</v>
+        <v>0.02503961730354764</v>
       </c>
     </row>
     <row r="9">
@@ -8232,19 +8232,19 @@
         <v>153915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142966</v>
+        <v>142875</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163079</v>
+        <v>163073</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.766501924932788</v>
+        <v>0.7665019249327881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.711976391020704</v>
+        <v>0.7115226774794861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.812140662103037</v>
+        <v>0.8121070561196335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>341</v>
@@ -8253,19 +8253,19 @@
         <v>183735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170586</v>
+        <v>171401</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196480</v>
+        <v>196915</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6101124239988847</v>
+        <v>0.6101124239988845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5664508985506964</v>
+        <v>0.5691553131541239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.652433196556788</v>
+        <v>0.6538798474892815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>560</v>
@@ -8274,19 +8274,19 @@
         <v>337650</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>320966</v>
+        <v>322667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>352534</v>
+        <v>354434</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6726751010713982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6394361699984696</v>
+        <v>0.6428259089566101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.702327094871411</v>
+        <v>0.706113465117716</v>
       </c>
     </row>
     <row r="11">
@@ -8303,19 +8303,19 @@
         <v>16444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10537</v>
+        <v>11056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22837</v>
+        <v>23807</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08189022087046251</v>
+        <v>0.08189022087046252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05247703623795014</v>
+        <v>0.05505953962745642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1137269864777989</v>
+        <v>0.1185584715817449</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -8324,19 +8324,19 @@
         <v>43888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34924</v>
+        <v>35479</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54500</v>
+        <v>54333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1457364735257607</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1159679817369982</v>
+        <v>0.1178109597847922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1809719770595201</v>
+        <v>0.1804183425093106</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -8345,19 +8345,19 @@
         <v>60332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49583</v>
+        <v>49805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72081</v>
+        <v>72407</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1201951650407894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09878153500264948</v>
+        <v>0.09922371032970145</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1436020696497415</v>
+        <v>0.144251048524262</v>
       </c>
     </row>
     <row r="12">
@@ -8374,19 +8374,19 @@
         <v>19586</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13961</v>
+        <v>13695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27050</v>
+        <v>27413</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09754007195431837</v>
+        <v>0.09754007195431839</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0695280681813514</v>
+        <v>0.06820115429226588</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1347091079255836</v>
+        <v>0.1365167409039213</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>100</v>
@@ -8395,19 +8395,19 @@
         <v>51506</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42995</v>
+        <v>42766</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>61707</v>
+        <v>61797</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1710328755582128</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.14277077492605</v>
+        <v>0.1420101627383927</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2049043387623267</v>
+        <v>0.2052048431280982</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>132</v>
@@ -8416,19 +8416,19 @@
         <v>71093</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60303</v>
+        <v>60098</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>83593</v>
+        <v>84507</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1416325225193769</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1201375551961719</v>
+        <v>0.1197284892586165</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.166535745930053</v>
+        <v>0.1683579120567059</v>
       </c>
     </row>
     <row r="13">
@@ -8445,19 +8445,19 @@
         <v>9695</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5221</v>
+        <v>5466</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15529</v>
+        <v>15645</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04828336323249249</v>
+        <v>0.04828336323249251</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0260025978393379</v>
+        <v>0.02722280519044681</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07733541995634985</v>
+        <v>0.07791149778869148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -8466,19 +8466,19 @@
         <v>19540</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13864</v>
+        <v>14134</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26750</v>
+        <v>26786</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06488496537413392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0460357392231619</v>
+        <v>0.04693351646376467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08882684136780832</v>
+        <v>0.08894521394781707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -8487,19 +8487,19 @@
         <v>29235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22093</v>
+        <v>21548</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38112</v>
+        <v>38099</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05824359451821671</v>
+        <v>0.05824359451821672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04401377538672381</v>
+        <v>0.0429287691987137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07592825602152435</v>
+        <v>0.07590186296899615</v>
       </c>
     </row>
     <row r="14">
@@ -8516,19 +8516,19 @@
         <v>1162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3159</v>
+        <v>3064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.005784419009938484</v>
+        <v>0.005784419009938485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001682654504523095</v>
+        <v>0.00168050715551528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01573073096683562</v>
+        <v>0.01526102722969744</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -8537,19 +8537,19 @@
         <v>2479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>898</v>
+        <v>869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5425</v>
+        <v>5582</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.008233261543008007</v>
+        <v>0.008233261543008009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00298107197705275</v>
+        <v>0.00288722835113377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01801454141306841</v>
+        <v>0.01853413147839165</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -8558,19 +8558,19 @@
         <v>3641</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1705</v>
+        <v>1605</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7205</v>
+        <v>7095</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.007253616850218712</v>
+        <v>0.007253616850218713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00339580066465237</v>
+        <v>0.00319659428316329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01435375548437914</v>
+        <v>0.01413396132012999</v>
       </c>
     </row>
     <row r="15">
@@ -8662,19 +8662,19 @@
         <v>195777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185982</v>
+        <v>186999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203394</v>
+        <v>204044</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8537504325362325</v>
+        <v>0.8537504325362326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8110376583667923</v>
+        <v>0.8154717971789599</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8869685265251915</v>
+        <v>0.8898023565478956</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>311</v>
@@ -8683,19 +8683,19 @@
         <v>160874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150111</v>
+        <v>149703</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171090</v>
+        <v>170768</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6836840791104593</v>
+        <v>0.6836840791104595</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6379433533629805</v>
+        <v>0.6362076102737521</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7270975340231391</v>
+        <v>0.7257293082906248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>585</v>
@@ -8704,19 +8704,19 @@
         <v>356651</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>344123</v>
+        <v>342302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>371135</v>
+        <v>370525</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7676209032892649</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7406562347734389</v>
+        <v>0.7367362167734323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.798794910572895</v>
+        <v>0.7974814746351122</v>
       </c>
     </row>
     <row r="17">
@@ -8733,19 +8733,19 @@
         <v>11381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6835</v>
+        <v>6806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17614</v>
+        <v>17110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04963028336488369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02980532387030615</v>
+        <v>0.02967832652022067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0768130535641709</v>
+        <v>0.0746128441856134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -8754,19 +8754,19 @@
         <v>29320</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22647</v>
+        <v>22682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37889</v>
+        <v>38926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1246046767685397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09624543772553475</v>
+        <v>0.09639540407449626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1610221656919737</v>
+        <v>0.1654265863732821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -8775,19 +8775,19 @@
         <v>40701</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31335</v>
+        <v>31863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50036</v>
+        <v>50370</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08760081121683926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06744251835960702</v>
+        <v>0.06857839449261086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1076926330896973</v>
+        <v>0.1084106847420027</v>
       </c>
     </row>
     <row r="18">
@@ -8804,19 +8804,19 @@
         <v>17456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11341</v>
+        <v>11807</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25466</v>
+        <v>25560</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07612143553177862</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04945801231502794</v>
+        <v>0.05148685982782241</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1110541711031723</v>
+        <v>0.1114623850764247</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -8825,19 +8825,19 @@
         <v>30344</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23147</v>
+        <v>22838</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38007</v>
+        <v>38896</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1289574854014517</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09836831597620747</v>
+        <v>0.097058578329361</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1615236207155549</v>
+        <v>0.1653020888176765</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -8846,19 +8846,19 @@
         <v>47800</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37800</v>
+        <v>38466</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58880</v>
+        <v>59101</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1028800742094195</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08135805519963482</v>
+        <v>0.08279077034485771</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1267271278998734</v>
+        <v>0.1272024215258016</v>
       </c>
     </row>
     <row r="19">
@@ -8875,19 +8875,19 @@
         <v>4700</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2046</v>
+        <v>2068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9392</v>
+        <v>9070</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02049784856710518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008923558072276018</v>
+        <v>0.00901608678913482</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04095755698041202</v>
+        <v>0.03955342016844878</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -8896,19 +8896,19 @@
         <v>12114</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7228</v>
+        <v>7528</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18577</v>
+        <v>19160</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0514822312422787</v>
+        <v>0.05148223124227871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03071888754274091</v>
+        <v>0.03199402369401275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07894998530841212</v>
+        <v>0.08142691009057575</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -8917,19 +8917,19 @@
         <v>16814</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11464</v>
+        <v>11457</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25118</v>
+        <v>24165</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03618978433254954</v>
+        <v>0.03618978433254955</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02467333136947352</v>
+        <v>0.02465853970099043</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05406207465024398</v>
+        <v>0.05201064349106109</v>
       </c>
     </row>
     <row r="20">
@@ -8959,19 +8959,19 @@
         <v>2652</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1110</v>
+        <v>1128</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6175</v>
+        <v>6265</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01127152747727054</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004716477480204081</v>
+        <v>0.004792986058535285</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02624099684294273</v>
+        <v>0.0266256418002817</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -8980,19 +8980,19 @@
         <v>2652</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1054</v>
+        <v>1137</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5779</v>
+        <v>5642</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005708426951926675</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00226959354188952</v>
+        <v>0.002448085775012839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01243877648738496</v>
+        <v>0.01214317613614841</v>
       </c>
     </row>
     <row r="21">
@@ -9084,19 +9084,19 @@
         <v>167386</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>156731</v>
+        <v>156562</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177024</v>
+        <v>177126</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7888382322068331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7386237261467448</v>
+        <v>0.7378303531356833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8342613647219628</v>
+        <v>0.8347390141972482</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>285</v>
@@ -9105,19 +9105,19 @@
         <v>148155</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138368</v>
+        <v>137798</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157068</v>
+        <v>156905</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7187716853754432</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6712899906526992</v>
+        <v>0.6685266019669877</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7620132174304779</v>
+        <v>0.7612233541800174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>523</v>
@@ -9126,19 +9126,19 @@
         <v>315541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>300489</v>
+        <v>299008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>329188</v>
+        <v>327951</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7543133486495773</v>
+        <v>0.7543133486495777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7183321090414188</v>
+        <v>0.7147921308459262</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7869384540978021</v>
+        <v>0.7839808414751346</v>
       </c>
     </row>
     <row r="23">
@@ -9155,19 +9155,19 @@
         <v>24093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16523</v>
+        <v>16861</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33689</v>
+        <v>32607</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1135443423242119</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07786582529300705</v>
+        <v>0.07946278197810704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1587658542817151</v>
+        <v>0.1536652091486845</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>49</v>
@@ -9176,19 +9176,19 @@
         <v>26855</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20527</v>
+        <v>20148</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34297</v>
+        <v>34066</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1302848386401943</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0995846396407525</v>
+        <v>0.09774756800249167</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1663931336685844</v>
+        <v>0.1652712424117199</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>82</v>
@@ -9197,19 +9197,19 @@
         <v>50948</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>40008</v>
+        <v>40967</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62973</v>
+        <v>62057</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1217931245482137</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09564156935886567</v>
+        <v>0.09793266666733778</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1505401479556687</v>
+        <v>0.1483492720820138</v>
       </c>
     </row>
     <row r="24">
@@ -9226,19 +9226,19 @@
         <v>17070</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11694</v>
+        <v>11410</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26043</v>
+        <v>25507</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08044355827793767</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05510974291354611</v>
+        <v>0.05377120477084075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1227331626849352</v>
+        <v>0.1202071648792757</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -9247,19 +9247,19 @@
         <v>19431</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13559</v>
+        <v>14125</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25974</v>
+        <v>26227</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09427107428055048</v>
+        <v>0.09427107428055045</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06577929950890259</v>
+        <v>0.06852568011090546</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.126014712600565</v>
+        <v>0.1272381953555846</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -9268,19 +9268,19 @@
         <v>36501</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28528</v>
+        <v>28350</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>47080</v>
+        <v>47047</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08725698638971703</v>
+        <v>0.087256986389717</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06819666295908879</v>
+        <v>0.06777178545718181</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1125473996721231</v>
+        <v>0.1124669676374947</v>
       </c>
     </row>
     <row r="25">
@@ -9297,19 +9297,19 @@
         <v>3644</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1375</v>
+        <v>1203</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8545</v>
+        <v>7948</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01717386719101731</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006478904974115982</v>
+        <v>0.005667942929961969</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04027148284936274</v>
+        <v>0.0374569704974121</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -9318,19 +9318,19 @@
         <v>11681</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7101</v>
+        <v>7456</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18214</v>
+        <v>18169</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05667240170381202</v>
+        <v>0.05667240170381203</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03444906067376355</v>
+        <v>0.03617048119619794</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0883639637440518</v>
+        <v>0.08814548749517385</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -9339,19 +9339,19 @@
         <v>15326</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9828</v>
+        <v>10300</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22711</v>
+        <v>23501</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0366365404124918</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02349451927613386</v>
+        <v>0.02462223503350633</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05429235447966238</v>
+        <v>0.05617932935020343</v>
       </c>
     </row>
     <row r="26">
@@ -9490,19 +9490,19 @@
         <v>557319</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>538185</v>
+        <v>538427</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>575570</v>
+        <v>574520</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7865277164280512</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7595239728261146</v>
+        <v>0.759865504445443</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8122841401685217</v>
+        <v>0.8108021213564999</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1054</v>
@@ -9511,19 +9511,19 @@
         <v>553411</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>531789</v>
+        <v>531592</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>574776</v>
+        <v>574107</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6260135693501611</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6015551608610969</v>
+        <v>0.601332188231589</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.650181125530807</v>
+        <v>0.6494249975267969</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1839</v>
@@ -9532,19 +9532,19 @@
         <v>1110731</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1082846</v>
+        <v>1080226</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1139117</v>
+        <v>1141594</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.6974295008044409</v>
+        <v>0.6974295008044411</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6799207199155923</v>
+        <v>0.6782754661368318</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7152531300839806</v>
+        <v>0.7168081853397015</v>
       </c>
     </row>
     <row r="29">
@@ -9561,19 +9561,19 @@
         <v>60899</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49861</v>
+        <v>48211</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>73796</v>
+        <v>73390</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08594428596123727</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0703671183015806</v>
+        <v>0.06803913537474778</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1041455165021777</v>
+        <v>0.1035724084423287</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>235</v>
@@ -9582,19 +9582,19 @@
         <v>127565</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>112360</v>
+        <v>111542</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>142877</v>
+        <v>143062</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1443006468856987</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1271003554099609</v>
+        <v>0.1261749949325327</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1616216299475035</v>
+        <v>0.1618309608584306</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>327</v>
@@ -9603,19 +9603,19 @@
         <v>188464</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>169666</v>
+        <v>170244</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>207002</v>
+        <v>209522</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.11833674309546</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1065334172489804</v>
+        <v>0.1068966981912338</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.129976721132016</v>
+        <v>0.1315592767725401</v>
       </c>
     </row>
     <row r="30">
@@ -9632,19 +9632,19 @@
         <v>68621</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>56480</v>
+        <v>55334</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>83081</v>
+        <v>81576</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09684307071754258</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07970912895098656</v>
+        <v>0.07809159405655627</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1172494433159536</v>
+        <v>0.1151259064847915</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>263</v>
@@ -9653,19 +9653,19 @@
         <v>138326</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>123101</v>
+        <v>122586</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>154845</v>
+        <v>154278</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1564731791289147</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1392509488747782</v>
+        <v>0.1386687355251271</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1751597943640023</v>
+        <v>0.1745179666577406</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>369</v>
@@ -9674,19 +9674,19 @@
         <v>206947</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>186527</v>
+        <v>188190</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>228204</v>
+        <v>227618</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1299425597882321</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.117120741171675</v>
+        <v>0.118165008724127</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1432893960433664</v>
+        <v>0.1429213977383878</v>
       </c>
     </row>
     <row r="31">
@@ -9703,19 +9703,19 @@
         <v>20581</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14221</v>
+        <v>13962</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30530</v>
+        <v>28612</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.02904570248378306</v>
+        <v>0.02904570248378305</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02006971233350255</v>
+        <v>0.01970368312155818</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04308572323679603</v>
+        <v>0.04037955032119505</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>102</v>
@@ -9724,19 +9724,19 @@
         <v>57973</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>46477</v>
+        <v>47487</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>69204</v>
+        <v>70270</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06557847237666886</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05257444906437297</v>
+        <v>0.05371632352239421</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07828285011977085</v>
+        <v>0.07948846697357592</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>133</v>
@@ -9745,19 +9745,19 @@
         <v>78554</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>66740</v>
+        <v>64837</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>93556</v>
+        <v>92290</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04932431759964923</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0419059418431766</v>
+        <v>0.04071152990484234</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05874366376058771</v>
+        <v>0.05794922346211833</v>
       </c>
     </row>
     <row r="32">
@@ -9774,19 +9774,19 @@
         <v>1162</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3267</v>
+        <v>3229</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001639224409386035</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0004812448246473332</v>
+        <v>0.000479984893194271</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.004611006993242669</v>
+        <v>0.004557448326122798</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -9795,19 +9795,19 @@
         <v>6749</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3701</v>
+        <v>3673</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11206</v>
+        <v>11252</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007634132258556896</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004186033995030607</v>
+        <v>0.004154480183056951</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01267574197376799</v>
+        <v>0.01272840386543684</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -9816,19 +9816,19 @@
         <v>7910</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4692</v>
+        <v>4593</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12238</v>
+        <v>12642</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.004966878712217712</v>
+        <v>0.004966878712217713</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00294600823356773</v>
+        <v>0.002884059863786787</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007684445583014489</v>
+        <v>0.007937737639966424</v>
       </c>
     </row>
     <row r="33">
